--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P14_trail15 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P14_trail15 Features.xlsx
@@ -4169,7 +4169,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z17"/>
+  <dimension ref="A1:X17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4180,29 +4180,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="22" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="21" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="19" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="22" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="22" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="22" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="22" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
     <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
     <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
     <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
-    <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="19" bestFit="1" customWidth="1" min="26" max="26"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="19" bestFit="1" customWidth="1" min="24" max="24"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4223,115 +4221,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -4348,72 +4336,66 @@
         <v>6.080478858850023e-08</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>-1.775832895632304</v>
+        <v>3.63710448317804e-07</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>4.846300385286009</v>
+        <v>1.657167464048157e-06</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>3.63710448317804e-07</v>
+        <v>0.07381461574661115</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>1.657167464048157e-06</v>
+        <v>0.3273932396979778</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>0.07381461574661115</v>
+        <v>0.1125051705446544</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.3273932396979778</v>
+        <v>1.872377154776848</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.1125051705446544</v>
+        <v>2.260541119296908</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.876886494004484</v>
+        <v>4.628857080228355</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>2.260541119296908</v>
+        <v>1.431592817032783e-16</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>4.628857080228355</v>
+        <v>900237028.6564373</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>1.431592817032783e-16</v>
+        <v>1.324432386966386e-07</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>900237028.6564373</v>
+        <v>116.0201053566713</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>1.324432386966386e-07</v>
+        <v>0.0001254610308986706</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>116.0201053566713</v>
+        <v>8.58733438554399</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>0.0001254610308986706</v>
+        <v>1.249047518916339</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>8.58733438554399</v>
+        <v>0.009251786465445128</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.249047518916339</v>
+        <v>3.045333620732813</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.009251786465445128</v>
+        <v>0.960359894211223</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>3.045333620732813</v>
+        <v>1.422780408507611</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.960359894211223</v>
+        <v>22</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>1.422780408507611</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>0.3518584709739163</v>
       </c>
     </row>
@@ -4428,72 +4410,66 @@
         <v>5.067947780815751e-08</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>-1.023536024591006</v>
+        <v>2.854757460503309e-07</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>1.644615604502472</v>
+        <v>1.661024791407471e-06</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>2.854757460503309e-07</v>
+        <v>0.06478360562834931</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>1.661024791407471e-06</v>
+        <v>0.3439326663633623</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>0.06478360562834931</v>
+        <v>0.1223519355616404</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.3439326663633623</v>
+        <v>1.875824085366829</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.1223519355616404</v>
+        <v>2.319682420070285</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.877280386756367</v>
+        <v>4.39400023236853</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>2.319682420070285</v>
+        <v>1.588718318496225e-16</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>4.39400023236853</v>
+        <v>821730177.639582</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>1.588718318496225e-16</v>
+        <v>1.453117387482706e-07</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>821730177.639582</v>
+        <v>107.2766927661267</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>1.453117387482706e-07</v>
+        <v>0.0001310297554818315</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>107.2766927661267</v>
+        <v>7.860787578921219</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>0.0001310297554818315</v>
+        <v>1.326851599423265</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>7.860787578921219</v>
+        <v>0.008096588208459515</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.326851599423265</v>
+        <v>3.154293852857698</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.008096588208459515</v>
+        <v>0.9613047557827523</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>3.154293852857698</v>
+        <v>1.446539181822303</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.9613047557827523</v>
+        <v>16</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>1.446539181822303</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>0.3258682516880547</v>
       </c>
     </row>
@@ -4508,72 +4484,66 @@
         <v>4.436087362573818e-08</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>-0.3784393674777912</v>
+        <v>2.134813825102475e-07</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>-0.9114250069733671</v>
+        <v>1.663766834371781e-06</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>2.134813825102475e-07</v>
+        <v>0.04965817784472949</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>1.663766834371781e-06</v>
+        <v>0.337532969406553</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>0.04965817784472949</v>
+        <v>0.1161735989660124</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.337532969406553</v>
+        <v>1.846402693650179</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.1161735989660124</v>
+        <v>2.037904639066503</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.829271711868024</v>
+        <v>5.062033705358171</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>2.037904639066503</v>
+        <v>1.99916725270437e-16</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>5.062033705358171</v>
+        <v>666473996.3135175</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>1.99916725270437e-16</v>
+        <v>1.777213088999856e-07</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>666473996.3135175</v>
+        <v>88.80052795117599</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>1.777213088999856e-07</v>
+        <v>0.0001415646247638125</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>88.80052795117599</v>
+        <v>8.195981812985853</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>0.0001415646247638125</v>
+        <v>1.401673031227628</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>8.195981812985853</v>
+        <v>0.009509478791351703</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.401673031227628</v>
+        <v>3.134907286395181</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.009509478791351703</v>
+        <v>0.9585841151988567</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>3.134907286395181</v>
+        <v>1.546525101483713</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.9585841151988567</v>
+        <v>17</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>1.546525101483713</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>0.3389868191439898</v>
       </c>
     </row>
@@ -4588,72 +4558,66 @@
         <v>4.177255867267503e-08</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>-0.1813202815725329</v>
+        <v>1.353637585969101e-07</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>-1.501197769385777</v>
+        <v>1.66532175345082e-06</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>1.353637585969101e-07</v>
+        <v>0.02319466249535597</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>1.66532175345082e-06</v>
+        <v>0.2685111037092754</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>0.02319466249535597</v>
+        <v>0.07246827563476814</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.2685111037092754</v>
+        <v>1.845989229833795</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.07246827563476814</v>
+        <v>2.02529721621983</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.826396434361327</v>
+        <v>4.085672427821025</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>2.02529721621983</v>
+        <v>3.334355264948128e-16</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>4.085672427821025</v>
+        <v>416648379.4814241</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>3.334355264948128e-16</v>
+        <v>2.857527848667747e-07</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>416648379.4814241</v>
+        <v>57.88303101915778</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>2.857527848667747e-07</v>
+        <v>0.0001395566671247158</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>57.88303101915778</v>
+        <v>9.386642999075875</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>0.0001395566671247158</v>
+        <v>1.320431493109466</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>9.386642999075875</v>
+        <v>0.01229620770497447</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.320431493109466</v>
+        <v>3.073141693873296</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.01229620770497447</v>
+        <v>0.9583395002615407</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>3.073141693873296</v>
+        <v>1.577674106903817</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.9583395002615407</v>
+        <v>17</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>1.577674106903817</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>0.3462329509260187</v>
       </c>
     </row>
@@ -4668,72 +4632,66 @@
         <v>4.133041859875323e-08</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>-0.1863834400675187</v>
+        <v>1.215916582911386e-07</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>-1.482659650397546</v>
+        <v>1.665780096276031e-06</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>1.215916582911386e-07</v>
+        <v>-0.0002719148161070943</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>1.665780096276031e-06</v>
+        <v>0.1983993948230071</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>-0.0002719148161070943</v>
+        <v>0.03925756380269704</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.1983993948230071</v>
+        <v>1.837852883940362</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.03925756380269704</v>
+        <v>1.992703906760091</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1.818649886499495</v>
+        <v>3.7601230491521</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>1.992703906760091</v>
+        <v>3.936722872559473e-16</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>3.7601230491521</v>
+        <v>344466870.783277</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>3.936722872559473e-16</v>
+        <v>3.449219115087059e-07</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>344466870.783277</v>
+        <v>46.7121399261148</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>3.449219115087059e-07</v>
+        <v>0.0001318563158998676</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>46.7121399261148</v>
+        <v>8.887184779442393</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>0.0001318563158998676</v>
+        <v>1.317382332852503</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>8.887184779442393</v>
+        <v>0.01041428257086615</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>1.317382332852503</v>
+        <v>3.104079234501245</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0.01041428257086615</v>
+        <v>0.9583226050387338</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>3.104079234501245</v>
+        <v>1.570274716666291</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.9583226050387338</v>
+        <v>15</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>1.570274716666291</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z6" s="2" t="n">
         <v>0.285901053162249</v>
       </c>
     </row>
@@ -4748,72 +4706,66 @@
         <v>4.13833601288247e-08</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>-0.1584393419987157</v>
+        <v>1.215916582911386e-07</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>-1.496478155386165</v>
+        <v>1.665366536150035e-06</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>1.215916582911386e-07</v>
+        <v>-0.01840034822940523</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>1.665366536150035e-06</v>
+        <v>0.1415473673376008</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>-0.01840034822940523</v>
+        <v>0.02033128349190962</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.1415473673376008</v>
+        <v>1.842656382955565</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.02033128349190962</v>
+        <v>1.96040673245246</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1.821608033406957</v>
+        <v>3.675856224830207</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>1.96040673245246</v>
+        <v>4.119285807457903e-16</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>3.675856224830207</v>
+        <v>329029369.406554</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>4.119285807457903e-16</v>
+        <v>3.615645448219145e-07</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>329029369.406554</v>
+        <v>44.59552241227617</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>3.615645448219145e-07</v>
+        <v>0.0001278655262647914</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>44.59552241227617</v>
+        <v>8.404300496573335</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>0.0001278655262647914</v>
+        <v>1.286896827460559</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>8.404300496573335</v>
+        <v>0.009031431970350176</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>1.286896827460559</v>
+        <v>3.102213087170832</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.009031431970350176</v>
+        <v>0.9577997861309087</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>3.102213087170832</v>
+        <v>1.576918774104337</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.9577997861309087</v>
+        <v>15</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>1.576918774104337</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z7" s="2" t="n">
         <v>0.2551802831305446</v>
       </c>
     </row>
@@ -4828,72 +4780,66 @@
         <v>4.117740306345206e-08</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>-0.1043222761819998</v>
+        <v>1.215916582911386e-07</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>-1.492576227782433</v>
+        <v>1.664357022224581e-06</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>1.215916582911386e-07</v>
+        <v>-0.02927807623080506</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>1.664357022224581e-06</v>
+        <v>0.117590901174321</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>-0.02927807623080506</v>
+        <v>0.01467590687331739</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>0.117590901174321</v>
+        <v>1.842188227253079</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>0.01467590687331739</v>
+        <v>1.928486786284734</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>1.822452325199215</v>
+        <v>3.68149772320453</v>
       </c>
       <c r="L8" s="2" t="n">
-        <v>1.928486786284734</v>
+        <v>4.106670757636498e-16</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>3.68149772320453</v>
+        <v>321654056.805853</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>4.106670757636498e-16</v>
+        <v>3.688608210510215e-07</v>
       </c>
       <c r="O8" s="2" t="n">
-        <v>321654056.805853</v>
+        <v>42.48816277368713</v>
       </c>
       <c r="P8" s="2" t="n">
-        <v>3.688608210510215e-07</v>
+        <v>0.0001279211996435154</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>42.48816277368713</v>
+        <v>8.499539745418682</v>
       </c>
       <c r="R8" s="2" t="n">
-        <v>0.0001279211996435154</v>
+        <v>1.265585611987544</v>
       </c>
       <c r="S8" s="2" t="n">
-        <v>8.499539745418682</v>
+        <v>0.009241305803932964</v>
       </c>
       <c r="T8" s="2" t="n">
-        <v>1.265585611987544</v>
+        <v>3.040581467423063</v>
       </c>
       <c r="U8" s="2" t="n">
-        <v>0.009241305803932964</v>
+        <v>0.9568725981107971</v>
       </c>
       <c r="V8" s="2" t="n">
-        <v>3.040581467423063</v>
+        <v>1.593174507555576</v>
       </c>
       <c r="W8" s="2" t="n">
-        <v>0.9568725981107971</v>
+        <v>15</v>
       </c>
       <c r="X8" s="2" t="n">
-        <v>1.593174507555576</v>
-      </c>
-      <c r="Y8" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z8" s="2" t="n">
         <v>0.2539890815861716</v>
       </c>
     </row>
@@ -4908,72 +4854,66 @@
         <v>4.067731377162219e-08</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>-0.05475185994260705</v>
+        <v>1.215916582911386e-07</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>-1.482105317610537</v>
+        <v>1.66303721781059e-06</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>1.215916582911386e-07</v>
+        <v>-0.0343631782834716</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>1.66303721781059e-06</v>
+        <v>0.1147844519702312</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>-0.0343631782834716</v>
+        <v>0.0143557991334031</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>0.1147844519702312</v>
+        <v>1.839067257264765</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>0.0143557991334031</v>
+        <v>1.867789375840609</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>1.820054598785349</v>
+        <v>3.747779260953346</v>
       </c>
       <c r="L9" s="2" t="n">
-        <v>1.867789375840609</v>
+        <v>3.962697774137684e-16</v>
       </c>
       <c r="M9" s="2" t="n">
-        <v>3.747779260953346</v>
+        <v>323593308.1483964</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>3.962697774137684e-16</v>
+        <v>3.649347065249589e-07</v>
       </c>
       <c r="O9" s="2" t="n">
-        <v>323593308.1483964</v>
+        <v>41.49445021731717</v>
       </c>
       <c r="P9" s="2" t="n">
-        <v>3.649347065249589e-07</v>
+        <v>0.000130486292178409</v>
       </c>
       <c r="Q9" s="2" t="n">
-        <v>41.49445021731717</v>
+        <v>8.684102286599476</v>
       </c>
       <c r="R9" s="2" t="n">
-        <v>0.000130486292178409</v>
+        <v>1.274109089665031</v>
       </c>
       <c r="S9" s="2" t="n">
-        <v>8.684102286599476</v>
+        <v>0.009840445287777781</v>
       </c>
       <c r="T9" s="2" t="n">
-        <v>1.274109089665031</v>
+        <v>3.007497969166578</v>
       </c>
       <c r="U9" s="2" t="n">
-        <v>0.009840445287777781</v>
+        <v>0.957567517037637</v>
       </c>
       <c r="V9" s="2" t="n">
-        <v>3.007497969166578</v>
+        <v>1.606913337666745</v>
       </c>
       <c r="W9" s="2" t="n">
-        <v>0.957567517037637</v>
+        <v>15</v>
       </c>
       <c r="X9" s="2" t="n">
-        <v>1.606913337666745</v>
-      </c>
-      <c r="Y9" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z9" s="2" t="n">
         <v>0.2643238994269698</v>
       </c>
     </row>
@@ -4988,72 +4928,66 @@
         <v>4.011418676960668e-08</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>-0.006331682422043636</v>
+        <v>1.196118570574477e-07</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>-1.472048943936682</v>
+        <v>1.661621939724942e-06</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>1.196118570574477e-07</v>
+        <v>-0.03511261645405558</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>1.661621939724942e-06</v>
+        <v>0.1161992551933439</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>-0.03511261645405558</v>
+        <v>0.01473321996320992</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>0.1161992551933439</v>
+        <v>1.837282032757384</v>
       </c>
       <c r="J10" s="2" t="n">
-        <v>0.01473321996320992</v>
+        <v>1.84542774725936</v>
       </c>
       <c r="K10" s="2" t="n">
-        <v>1.821385139253599</v>
+        <v>3.904444120617838</v>
       </c>
       <c r="L10" s="2" t="n">
-        <v>1.84542774725936</v>
+        <v>3.651073154869291e-16</v>
       </c>
       <c r="M10" s="2" t="n">
-        <v>3.904444120617838</v>
+        <v>358755238.5975868</v>
       </c>
       <c r="N10" s="2" t="n">
-        <v>3.651073154869291e-16</v>
+        <v>3.292130444027137e-07</v>
       </c>
       <c r="O10" s="2" t="n">
-        <v>358755238.5975868</v>
+        <v>46.99125431995938</v>
       </c>
       <c r="P10" s="2" t="n">
-        <v>3.292130444027137e-07</v>
+        <v>0.0001353228926772191</v>
       </c>
       <c r="Q10" s="2" t="n">
-        <v>46.99125431995938</v>
+        <v>8.646551559097398</v>
       </c>
       <c r="R10" s="2" t="n">
-        <v>0.0001353228926772191</v>
+        <v>1.321902664110786</v>
       </c>
       <c r="S10" s="2" t="n">
-        <v>8.646551559097398</v>
+        <v>0.01011712564969824</v>
       </c>
       <c r="T10" s="2" t="n">
-        <v>1.321902664110786</v>
+        <v>3.073596587591697</v>
       </c>
       <c r="U10" s="2" t="n">
-        <v>0.01011712564969824</v>
+        <v>0.9582531231756115</v>
       </c>
       <c r="V10" s="2" t="n">
-        <v>3.073596587591697</v>
+        <v>1.579814768424319</v>
       </c>
       <c r="W10" s="2" t="n">
-        <v>0.9582531231756115</v>
+        <v>22</v>
       </c>
       <c r="X10" s="2" t="n">
-        <v>1.579814768424319</v>
-      </c>
-      <c r="Y10" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="Z10" s="2" t="n">
         <v>0.2816012320316255</v>
       </c>
     </row>
@@ -5068,72 +5002,66 @@
         <v>3.962163202790149e-08</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>0.04772157368812872</v>
+        <v>1.196118570574477e-07</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>-1.455818794289444</v>
+        <v>1.66019886870312e-06</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>1.196118570574477e-07</v>
+        <v>-0.03661595288875857</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>1.66019886870312e-06</v>
+        <v>0.1177783115050943</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>-0.03661595288875857</v>
+        <v>0.01521201768083211</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>0.1177783115050943</v>
+        <v>1.838857215440442</v>
       </c>
       <c r="J11" s="2" t="n">
-        <v>0.01521201768083211</v>
+        <v>1.796418393457226</v>
       </c>
       <c r="K11" s="2" t="n">
-        <v>1.822511078959284</v>
+        <v>4.244065063916544</v>
       </c>
       <c r="L11" s="2" t="n">
-        <v>1.796418393457226</v>
+        <v>3.090116775172743e-16</v>
       </c>
       <c r="M11" s="2" t="n">
-        <v>4.244065063916544</v>
+        <v>422624628.0732247</v>
       </c>
       <c r="N11" s="2" t="n">
-        <v>3.090116775172743e-16</v>
+        <v>2.795175271439157e-07</v>
       </c>
       <c r="O11" s="2" t="n">
-        <v>422624628.0732247</v>
+        <v>55.19306280226283</v>
       </c>
       <c r="P11" s="2" t="n">
-        <v>2.795175271439157e-07</v>
+        <v>0.0001526265054585401</v>
       </c>
       <c r="Q11" s="2" t="n">
-        <v>55.19306280226283</v>
+        <v>8.667914509536816</v>
       </c>
       <c r="R11" s="2" t="n">
-        <v>0.0001526265054585401</v>
+        <v>1.459338173963913</v>
       </c>
       <c r="S11" s="2" t="n">
-        <v>8.667914509536816</v>
+        <v>0.01146724784852851</v>
       </c>
       <c r="T11" s="2" t="n">
-        <v>1.459338173963913</v>
+        <v>3.091639214485404</v>
       </c>
       <c r="U11" s="2" t="n">
-        <v>0.01146724784852851</v>
+        <v>0.9580406577802451</v>
       </c>
       <c r="V11" s="2" t="n">
-        <v>3.091639214485404</v>
+        <v>1.590759017978218</v>
       </c>
       <c r="W11" s="2" t="n">
-        <v>0.9580406577802451</v>
+        <v>42</v>
       </c>
       <c r="X11" s="2" t="n">
-        <v>1.590759017978218</v>
-      </c>
-      <c r="Y11" s="2" t="n">
-        <v>42</v>
-      </c>
-      <c r="Z11" s="2" t="n">
         <v>0.2753064650424987</v>
       </c>
     </row>
@@ -5148,72 +5076,66 @@
         <v>3.913368603930874e-08</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>0.1032586183490329</v>
+        <v>1.196118570574477e-07</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>-1.43556629960323</v>
+        <v>1.658723204170361e-06</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>1.196118570574477e-07</v>
+        <v>-0.03822489649294362</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>1.658723204170361e-06</v>
+        <v>0.1194439145749828</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>-0.03822489649294362</v>
+        <v>0.0157275320071976</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>0.1194439145749828</v>
+        <v>1.858852266825701</v>
       </c>
       <c r="J12" s="2" t="n">
-        <v>0.0157275320071976</v>
+        <v>2.110483049390568</v>
       </c>
       <c r="K12" s="2" t="n">
-        <v>1.852529570796629</v>
+        <v>4.264783637871294</v>
       </c>
       <c r="L12" s="2" t="n">
-        <v>2.110483049390568</v>
+        <v>2.71006044501919e-16</v>
       </c>
       <c r="M12" s="2" t="n">
-        <v>4.264783637871294</v>
+        <v>484406590.520802</v>
       </c>
       <c r="N12" s="2" t="n">
-        <v>2.71006044501919e-16</v>
+        <v>2.450122270815275e-07</v>
       </c>
       <c r="O12" s="2" t="n">
-        <v>484406590.520802</v>
+        <v>63.5914992195703</v>
       </c>
       <c r="P12" s="2" t="n">
-        <v>2.450122270815275e-07</v>
+        <v>0.0001443838574754293</v>
       </c>
       <c r="Q12" s="2" t="n">
-        <v>63.5914992195703</v>
+        <v>9.02036789931732</v>
       </c>
       <c r="R12" s="2" t="n">
-        <v>0.0001443838574754293</v>
+        <v>1.333936871733471</v>
       </c>
       <c r="S12" s="2" t="n">
-        <v>9.02036789931732</v>
+        <v>0.01174808667904192</v>
       </c>
       <c r="T12" s="2" t="n">
-        <v>1.333936871733471</v>
+        <v>3.083471714908174</v>
       </c>
       <c r="U12" s="2" t="n">
-        <v>0.01174808667904192</v>
+        <v>0.9588034131461267</v>
       </c>
       <c r="V12" s="2" t="n">
-        <v>3.083471714908174</v>
+        <v>1.56787667119626</v>
       </c>
       <c r="W12" s="2" t="n">
-        <v>0.9588034131461267</v>
+        <v>39</v>
       </c>
       <c r="X12" s="2" t="n">
-        <v>1.56787667119626</v>
-      </c>
-      <c r="Y12" s="2" t="n">
-        <v>39</v>
-      </c>
-      <c r="Z12" s="2" t="n">
         <v>0.271245807341482</v>
       </c>
     </row>
@@ -5228,72 +5150,66 @@
         <v>3.867424591243669e-08</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>0.1610683492334222</v>
+        <v>1.196118570574477e-07</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>-1.408552534921708</v>
+        <v>1.657220483190353e-06</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>1.196118570574477e-07</v>
+        <v>-0.03886315799101032</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>1.657220483190353e-06</v>
+        <v>0.1209089863134078</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>-0.03886315799101032</v>
+        <v>0.01612860865393185</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>0.1209089863134078</v>
+        <v>1.870187332851017</v>
       </c>
       <c r="J13" s="2" t="n">
-        <v>0.01612860865393185</v>
+        <v>1.998326463037394</v>
       </c>
       <c r="K13" s="2" t="n">
-        <v>1.867019191873698</v>
+        <v>4.300799648395444</v>
       </c>
       <c r="L13" s="2" t="n">
-        <v>1.998326463037394</v>
+        <v>2.664861000121378e-16</v>
       </c>
       <c r="M13" s="2" t="n">
-        <v>4.300799648395444</v>
+        <v>497374666.526706</v>
       </c>
       <c r="N13" s="2" t="n">
-        <v>2.664861000121378e-16</v>
+        <v>2.393765301088762e-07</v>
       </c>
       <c r="O13" s="2" t="n">
-        <v>497374666.526706</v>
+        <v>65.92374684686405</v>
       </c>
       <c r="P13" s="2" t="n">
-        <v>2.393765301088762e-07</v>
+        <v>0.0001311021516525809</v>
       </c>
       <c r="Q13" s="2" t="n">
-        <v>65.92374684686405</v>
+        <v>9.472844324355863</v>
       </c>
       <c r="R13" s="2" t="n">
-        <v>0.0001311021516525809</v>
+        <v>1.177217106560273</v>
       </c>
       <c r="S13" s="2" t="n">
-        <v>9.472844324355863</v>
+        <v>0.01176442268277548</v>
       </c>
       <c r="T13" s="2" t="n">
-        <v>1.177217106560273</v>
+        <v>2.954890711652778</v>
       </c>
       <c r="U13" s="2" t="n">
-        <v>0.01176442268277548</v>
+        <v>0.9583849694151467</v>
       </c>
       <c r="V13" s="2" t="n">
-        <v>2.954890711652778</v>
+        <v>1.545313885562607</v>
       </c>
       <c r="W13" s="2" t="n">
-        <v>0.9583849694151467</v>
+        <v>41</v>
       </c>
       <c r="X13" s="2" t="n">
-        <v>1.545313885562607</v>
-      </c>
-      <c r="Y13" s="2" t="n">
-        <v>41</v>
-      </c>
-      <c r="Z13" s="2" t="n">
         <v>0.2933848518734031</v>
       </c>
     </row>
@@ -5308,72 +5224,66 @@
         <v>3.827928671819554e-08</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>0.2226760936579852</v>
+        <v>1.196118570574477e-07</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>-1.371143589812338</v>
+        <v>1.655731970044636e-06</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>1.196118570574477e-07</v>
+        <v>-0.03832528090290295</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>1.655731970044636e-06</v>
+        <v>0.1217707812817689</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>-0.03832528090290295</v>
+        <v>0.01629580268675075</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>0.1217707812817689</v>
+        <v>1.882954455252124</v>
       </c>
       <c r="J14" s="2" t="n">
-        <v>0.01629580268675075</v>
+        <v>2.164913619681123</v>
       </c>
       <c r="K14" s="2" t="n">
-        <v>1.878069660522124</v>
+        <v>4.253975638663479</v>
       </c>
       <c r="L14" s="2" t="n">
-        <v>2.164913619681123</v>
+        <v>2.723848742058068e-16</v>
       </c>
       <c r="M14" s="2" t="n">
-        <v>4.253975638663479</v>
+        <v>497127707.1417102</v>
       </c>
       <c r="N14" s="2" t="n">
-        <v>2.723848742058068e-16</v>
+        <v>2.406879038243336e-07</v>
       </c>
       <c r="O14" s="2" t="n">
-        <v>497127707.1417102</v>
+        <v>67.31609661582561</v>
       </c>
       <c r="P14" s="2" t="n">
-        <v>2.406879038243336e-07</v>
+        <v>0.0001286937808586959</v>
       </c>
       <c r="Q14" s="2" t="n">
-        <v>67.31609661582561</v>
+        <v>8.977985633531048</v>
       </c>
       <c r="R14" s="2" t="n">
-        <v>0.0001286937808586959</v>
+        <v>1.189254745697631</v>
       </c>
       <c r="S14" s="2" t="n">
-        <v>8.977985633531048</v>
+        <v>0.0103732626017476</v>
       </c>
       <c r="T14" s="2" t="n">
-        <v>1.189254745697631</v>
+        <v>3.00206681952382</v>
       </c>
       <c r="U14" s="2" t="n">
-        <v>0.0103732626017476</v>
+        <v>0.9603950367690526</v>
       </c>
       <c r="V14" s="2" t="n">
-        <v>3.00206681952382</v>
+        <v>1.499360450414687</v>
       </c>
       <c r="W14" s="2" t="n">
-        <v>0.9603950367690526</v>
+        <v>41</v>
       </c>
       <c r="X14" s="2" t="n">
-        <v>1.499360450414687</v>
-      </c>
-      <c r="Y14" s="2" t="n">
-        <v>41</v>
-      </c>
-      <c r="Z14" s="2" t="n">
         <v>0.2964558478602231</v>
       </c>
     </row>
@@ -5388,72 +5298,66 @@
         <v>3.796920014029308e-08</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>0.2885207129785828</v>
+        <v>1.196118570574477e-07</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>-1.322041988129592</v>
+        <v>1.654300234245374e-06</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>1.196118570574477e-07</v>
+        <v>-0.03663783593851766</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>1.654300234245374e-06</v>
+        <v>0.1219314955978891</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>-0.03663783593851766</v>
+        <v>0.01620818739559315</v>
       </c>
       <c r="I15" s="2" t="n">
-        <v>0.1219314955978891</v>
+        <v>1.892851906679871</v>
       </c>
       <c r="J15" s="2" t="n">
-        <v>0.01620818739559315</v>
+        <v>2.013591329509022</v>
       </c>
       <c r="K15" s="2" t="n">
-        <v>1.88596178148803</v>
+        <v>4.133461048086268</v>
       </c>
       <c r="L15" s="2" t="n">
-        <v>2.013591329509022</v>
+        <v>2.884996464893607e-16</v>
       </c>
       <c r="M15" s="2" t="n">
-        <v>4.133461048086268</v>
+        <v>483908577.9217316</v>
       </c>
       <c r="N15" s="2" t="n">
-        <v>2.884996464893607e-16</v>
+        <v>2.483824263159769e-07</v>
       </c>
       <c r="O15" s="2" t="n">
-        <v>483908577.9217316</v>
+        <v>67.5572443696213</v>
       </c>
       <c r="P15" s="2" t="n">
-        <v>2.483824263159769e-07</v>
+        <v>0.0001316303353346528</v>
       </c>
       <c r="Q15" s="2" t="n">
-        <v>67.5572443696213</v>
+        <v>8.304757069459285</v>
       </c>
       <c r="R15" s="2" t="n">
-        <v>0.0001316303353346528</v>
+        <v>1.285241000682122</v>
       </c>
       <c r="S15" s="2" t="n">
-        <v>8.304757069459285</v>
+        <v>0.00907841127911958</v>
       </c>
       <c r="T15" s="2" t="n">
-        <v>1.285241000682122</v>
+        <v>3.124408672776049</v>
       </c>
       <c r="U15" s="2" t="n">
-        <v>0.00907841127911958</v>
+        <v>0.960202589674377</v>
       </c>
       <c r="V15" s="2" t="n">
-        <v>3.124408672776049</v>
+        <v>1.49786380098515</v>
       </c>
       <c r="W15" s="2" t="n">
-        <v>0.960202589674377</v>
+        <v>30</v>
       </c>
       <c r="X15" s="2" t="n">
-        <v>1.49786380098515</v>
-      </c>
-      <c r="Y15" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="Z15" s="2" t="n">
         <v>0.3051829039903116</v>
       </c>
     </row>
@@ -5468,72 +5372,66 @@
         <v>3.773752418227948e-08</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>0.3574566638733659</v>
+        <v>1.196118570574477e-07</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>-1.263075668654429</v>
+        <v>1.652961098780256e-06</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>1.196118570574477e-07</v>
+        <v>-0.0339636146098153</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>1.652961098780256e-06</v>
+        <v>0.1218586250009183</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>-0.0339636146098153</v>
+        <v>0.0160014854862247</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>0.1218586250009183</v>
+        <v>1.886994051650275</v>
       </c>
       <c r="J16" s="2" t="n">
-        <v>0.0160014854862247</v>
+        <v>1.959369121550421</v>
       </c>
       <c r="K16" s="2" t="n">
-        <v>1.882266724772179</v>
+        <v>4.080664663049029</v>
       </c>
       <c r="L16" s="2" t="n">
-        <v>1.959369121550421</v>
+        <v>3.17982062693543e-16</v>
       </c>
       <c r="M16" s="2" t="n">
-        <v>4.080664663049029</v>
+        <v>440489756.2809095</v>
       </c>
       <c r="N16" s="2" t="n">
-        <v>3.17982062693543e-16</v>
+        <v>2.72341068807138e-07</v>
       </c>
       <c r="O16" s="2" t="n">
-        <v>440489756.2809095</v>
+        <v>61.69844927596397</v>
       </c>
       <c r="P16" s="2" t="n">
-        <v>2.72341068807138e-07</v>
+        <v>0.000156164593842125</v>
       </c>
       <c r="Q16" s="2" t="n">
-        <v>61.69844927596397</v>
+        <v>8.691437982875893</v>
       </c>
       <c r="R16" s="2" t="n">
-        <v>0.000156164593842125</v>
+        <v>1.515549483229735</v>
       </c>
       <c r="S16" s="2" t="n">
-        <v>8.691437982875893</v>
+        <v>0.01179684429572212</v>
       </c>
       <c r="T16" s="2" t="n">
-        <v>1.515549483229735</v>
+        <v>3.106251501689306</v>
       </c>
       <c r="U16" s="2" t="n">
-        <v>0.01179684429572212</v>
+        <v>0.959991897468452</v>
       </c>
       <c r="V16" s="2" t="n">
-        <v>3.106251501689306</v>
+        <v>1.489458732788212</v>
       </c>
       <c r="W16" s="2" t="n">
-        <v>0.959991897468452</v>
+        <v>30</v>
       </c>
       <c r="X16" s="2" t="n">
-        <v>1.489458732788212</v>
-      </c>
-      <c r="Y16" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="Z16" s="2" t="n">
         <v>0.3538047506735847</v>
       </c>
     </row>
@@ -5548,72 +5446,66 @@
         <v>3.755247928355355e-08</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>0.4274521739208362</v>
+        <v>1.196118570574477e-07</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>-1.196669478415895</v>
+        <v>1.651747933189089e-06</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>1.196118570574477e-07</v>
+        <v>-0.03047268072209166</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>1.651747933189089e-06</v>
+        <v>0.1221545270383957</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>-0.03047268072209166</v>
+        <v>0.01584885556349202</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>0.1221545270383957</v>
+        <v>1.833149496320036</v>
       </c>
       <c r="J17" s="2" t="n">
-        <v>0.01584885556349202</v>
+        <v>1.795270758537178</v>
       </c>
       <c r="K17" s="2" t="n">
-        <v>1.814811890319962</v>
+        <v>4.487376035408594</v>
       </c>
       <c r="L17" s="2" t="n">
-        <v>1.795270758537178</v>
+        <v>3.436639284398716e-16</v>
       </c>
       <c r="M17" s="2" t="n">
-        <v>4.487376035408594</v>
+        <v>396431960.8932446</v>
       </c>
       <c r="N17" s="2" t="n">
-        <v>3.436639284398716e-16</v>
+        <v>2.969800669862868e-07</v>
       </c>
       <c r="O17" s="2" t="n">
-        <v>396431960.8932446</v>
+        <v>54.00963863353645</v>
       </c>
       <c r="P17" s="2" t="n">
-        <v>2.969800669862868e-07</v>
+        <v>0.000202504127562736</v>
       </c>
       <c r="Q17" s="2" t="n">
-        <v>54.00963863353645</v>
+        <v>11.17154949307185</v>
       </c>
       <c r="R17" s="2" t="n">
-        <v>0.000202504127562736</v>
+        <v>1.270384096660224</v>
       </c>
       <c r="S17" s="2" t="n">
-        <v>11.17154949307185</v>
+        <v>0.02527322754477167</v>
       </c>
       <c r="T17" s="2" t="n">
-        <v>1.270384096660224</v>
+        <v>2.831998691709775</v>
       </c>
       <c r="U17" s="2" t="n">
-        <v>0.02527322754477167</v>
+        <v>0.9570859283036126</v>
       </c>
       <c r="V17" s="2" t="n">
-        <v>2.831998691709775</v>
+        <v>1.505022180451814</v>
       </c>
       <c r="W17" s="2" t="n">
-        <v>0.9570859283036126</v>
+        <v>31</v>
       </c>
       <c r="X17" s="2" t="n">
-        <v>1.505022180451814</v>
-      </c>
-      <c r="Y17" s="2" t="n">
-        <v>31</v>
-      </c>
-      <c r="Z17" s="2" t="n">
         <v>0.5315890672699752</v>
       </c>
     </row>
@@ -5990,7 +5882,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.555147112734097</v>
+        <v>1.571365620340708</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.375090722479595</v>
@@ -6079,7 +5971,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.596781621977591</v>
+        <v>1.610055848654323</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.277022305066145</v>
@@ -6168,7 +6060,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.605490659304106</v>
+        <v>1.613836610994775</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.378635196628614</v>
@@ -6257,7 +6149,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.65600219865817</v>
+        <v>1.650131875000533</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.300217683138498</v>
@@ -6346,7 +6238,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.731034932457844</v>
+        <v>1.70288286974043</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.625388123434309</v>
@@ -6435,7 +6327,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.733666006474105</v>
+        <v>1.699701713521748</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.856015992313199</v>
@@ -6524,7 +6416,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.714488606817926</v>
+        <v>1.684103412159119</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.708954989405477</v>
@@ -6613,7 +6505,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.707425163352935</v>
+        <v>1.683168443285614</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.471213423805035</v>
@@ -6702,7 +6594,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.736203377306693</v>
+        <v>1.710623289724909</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.794125965209525</v>
@@ -6791,7 +6683,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.737419211953067</v>
+        <v>1.709741439170858</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.764092980925103</v>
@@ -6880,7 +6772,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.722988080102929</v>
+        <v>1.699669224867874</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.699048972009703</v>
@@ -6969,7 +6861,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.727174447425448</v>
+        <v>1.706007150574133</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.816809246752335</v>
@@ -7058,7 +6950,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.731190663171839</v>
+        <v>1.711223008863769</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.786494699812551</v>
@@ -7147,7 +7039,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.7201867981658</v>
+        <v>1.699998748865364</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.849155277125352</v>
@@ -7236,7 +7128,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.667319935076699</v>
+        <v>1.663165319274738</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.030041120920348</v>
@@ -7325,7 +7217,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.570803061372076</v>
+        <v>1.581541534451145</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.01575139299337</v>
@@ -7414,7 +7306,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.565876509740196</v>
+        <v>1.577310240701596</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.031131973403581</v>
@@ -7503,7 +7395,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.548301238906287</v>
+        <v>1.56145089365898</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.07264296080525</v>
@@ -7592,7 +7484,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.566315510292593</v>
+        <v>1.580210585329118</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.049804353881945</v>
@@ -7681,7 +7573,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.589339609852456</v>
+        <v>1.601558226435082</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.087973814259059</v>
@@ -7770,7 +7662,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.582377453736116</v>
+        <v>1.60615366910197</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.056391809772134</v>
@@ -7859,7 +7751,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.576141838996902</v>
+        <v>1.599146279543113</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.115377834547322</v>
@@ -7948,7 +7840,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.57489432068688</v>
+        <v>1.59746172702669</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.044140907870985</v>
@@ -8037,7 +7929,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.578677540405582</v>
+        <v>1.602225391173594</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.087374333416048</v>
@@ -8126,7 +8018,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.578621336335771</v>
+        <v>1.604007293847855</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.1176907204111</v>
@@ -8215,7 +8107,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.603671002840467</v>
+        <v>1.629489882451941</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.066494499884019</v>
@@ -8304,7 +8196,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.608808487990862</v>
+        <v>1.636612850103694</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.083109645352883</v>
@@ -8393,7 +8285,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.620166926771196</v>
+        <v>1.646367368255628</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.182343946560055</v>
@@ -8482,7 +8374,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.626779444093012</v>
+        <v>1.652623251186797</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.103138559072072</v>
@@ -8571,7 +8463,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.692852043851778</v>
+        <v>1.702125663851514</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>1.829882920589005</v>
@@ -8660,7 +8552,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.769321436596188</v>
+        <v>1.772568573710036</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.280059931805221</v>
@@ -8749,7 +8641,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.737828290727321</v>
+        <v>1.749285616930118</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.437605848677731</v>
@@ -8838,7 +8730,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.756230184677832</v>
+        <v>1.770849756825503</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.426226464137575</v>
@@ -8927,7 +8819,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.761105793082471</v>
+        <v>1.780725831730257</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.367037707722039</v>
@@ -9016,7 +8908,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.778393591275639</v>
+        <v>1.790122185108823</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.990467927627575</v>
@@ -9105,7 +8997,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.765330392611808</v>
+        <v>1.778506307694816</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.704009488303542</v>
@@ -9194,7 +9086,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.797232717985189</v>
+        <v>1.812643202827711</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.878095115367781</v>
@@ -9283,7 +9175,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.809810580214494</v>
+        <v>1.820107345639163</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.836072162905606</v>
@@ -9372,7 +9264,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.807649593252146</v>
+        <v>1.817466439677864</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.858188066923177</v>
@@ -9461,7 +9353,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.809574722455307</v>
+        <v>1.818906295042411</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.910162981903469</v>
@@ -9550,7 +9442,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.811388807306128</v>
+        <v>1.821768319438121</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.852440870324289</v>
@@ -9639,7 +9531,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.811069489587019</v>
+        <v>1.819398052789241</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.096591500177799</v>
@@ -9728,7 +9620,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.812010388931504</v>
+        <v>1.81943340715777</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.171305080349435</v>
@@ -9817,7 +9709,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.772934419292865</v>
+        <v>1.790379577013662</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.836899467378936</v>
@@ -9906,7 +9798,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.741262275029221</v>
+        <v>1.756053049120746</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.759523975643421</v>
@@ -9995,7 +9887,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.745871130135989</v>
+        <v>1.761254428990082</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.778232696951555</v>
@@ -10084,7 +9976,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.775583586664687</v>
+        <v>1.786262946304556</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.660556850131811</v>
@@ -10173,7 +10065,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.770378322514341</v>
+        <v>1.772426614606061</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.765392189391036</v>
@@ -10262,7 +10154,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.734022901659066</v>
+        <v>1.746785408049184</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.816719018844101</v>
@@ -10351,7 +10243,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.734545529053376</v>
+        <v>1.748328564541493</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.795159209607693</v>
@@ -10440,7 +10332,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.753019383547745</v>
+        <v>1.762746126898962</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.881120468854026</v>
@@ -10529,7 +10421,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.746609378126089</v>
+        <v>1.7520754932725</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.703296879316338</v>
@@ -10618,7 +10510,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.737941442880381</v>
+        <v>1.742362061486997</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.616342723299461</v>
@@ -10707,7 +10599,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.741544188749102</v>
+        <v>1.746638327769261</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.65747487708547</v>
@@ -10796,7 +10688,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.742921107983349</v>
+        <v>1.748437509551075</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.73737569235489</v>
@@ -10885,7 +10777,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.726352280678268</v>
+        <v>1.731447653578286</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.723619855761279</v>
@@ -10974,7 +10866,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.707324070111786</v>
+        <v>1.71265242718271</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.671254732388321</v>
@@ -11063,7 +10955,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.710675720900106</v>
+        <v>1.711115887843115</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.676085344482102</v>
@@ -11152,7 +11044,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.736241974666748</v>
+        <v>1.728388734163124</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.641670950676797</v>
@@ -11241,7 +11133,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.773182455190466</v>
+        <v>1.764875351605224</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.758567754773105</v>
@@ -11330,7 +11222,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.782104652058069</v>
+        <v>1.766894773425139</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.127521904065476</v>
@@ -11616,7 +11508,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.691004430341015</v>
+        <v>1.680766409732662</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.429392535049409</v>
@@ -11705,7 +11597,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.717638836445643</v>
+        <v>1.696417545894751</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.169135225812276</v>
@@ -11794,7 +11686,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.690975063966624</v>
+        <v>1.6577278434361</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.755923651105574</v>
@@ -11883,7 +11775,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.718969512098331</v>
+        <v>1.675908676631827</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.04706942773305</v>
@@ -11972,7 +11864,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.728640038237941</v>
+        <v>1.688926684804428</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.965383406547545</v>
@@ -12061,7 +11953,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.72452801873363</v>
+        <v>1.676337654735203</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.189551139989831</v>
@@ -12150,7 +12042,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.714291155427445</v>
+        <v>1.672123327496996</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.238409580001069</v>
@@ -12239,7 +12131,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.710213098364337</v>
+        <v>1.677041091679941</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.328186358868718</v>
@@ -12328,7 +12220,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.723265785545696</v>
+        <v>1.694947237690435</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.094725650401087</v>
@@ -12417,7 +12309,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.730109520997251</v>
+        <v>1.707907457240007</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.382298173812293</v>
@@ -12506,7 +12398,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.744424414673082</v>
+        <v>1.730434294370974</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.013068936272517</v>
@@ -12595,7 +12487,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.75765886358081</v>
+        <v>1.743744013878626</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.243596960147263</v>
@@ -12684,7 +12576,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.753582702323469</v>
+        <v>1.741264163154355</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.179948546063148</v>
@@ -12773,7 +12665,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.754721216962788</v>
+        <v>1.736156273030278</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.459422280040527</v>
@@ -12862,7 +12754,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.740078330468755</v>
+        <v>1.718124913408785</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.298578210752664</v>
@@ -12951,7 +12843,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.750848958894537</v>
+        <v>1.727791177380716</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.489781410516163</v>
@@ -13040,7 +12932,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.755430184691176</v>
+        <v>1.735762254533038</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.440095861565716</v>
@@ -13129,7 +13021,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.759718049588895</v>
+        <v>1.746710018051076</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.133483063261167</v>
@@ -13218,7 +13110,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.761767848576867</v>
+        <v>1.74936236484722</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.043053201879072</v>
@@ -13307,7 +13199,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.774236679762223</v>
+        <v>1.750951752173189</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.015615266826261</v>
@@ -13396,7 +13288,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.750212431398255</v>
+        <v>1.739409043012564</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.01854185202842</v>
@@ -13485,7 +13377,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.767990659632154</v>
+        <v>1.748689071690265</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>1.976643243448104</v>
@@ -13574,7 +13466,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.756705771725808</v>
+        <v>1.736294742514294</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.019566291275443</v>
@@ -13663,7 +13555,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.74124926982951</v>
+        <v>1.725341106964094</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>1.968777293962937</v>
@@ -13752,7 +13644,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.741945311725625</v>
+        <v>1.72406268946867</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>1.973093063847467</v>
@@ -13841,7 +13733,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.751756842288141</v>
+        <v>1.73555278314936</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.035266288072338</v>
@@ -13930,7 +13822,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.753714680959987</v>
+        <v>1.734058232175447</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>1.946647420072698</v>
@@ -14019,7 +13911,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.753730377939838</v>
+        <v>1.737407906839112</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>1.997987642968564</v>
@@ -14108,7 +14000,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.761668274541792</v>
+        <v>1.750662659751815</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>1.95609496131851</v>
@@ -14197,7 +14089,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.77119158791582</v>
+        <v>1.759556443718642</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.035343469929257</v>
@@ -14286,7 +14178,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.769083325649479</v>
+        <v>1.758517404703809</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.017765313486767</v>
@@ -14375,7 +14267,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.766977891580244</v>
+        <v>1.758385816744726</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.014930708818274</v>
@@ -14464,7 +14356,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.774910666478838</v>
+        <v>1.763055060971796</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.01776622223628</v>
@@ -14553,7 +14445,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.773723245970919</v>
+        <v>1.765158595090679</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.02411370486778</v>
@@ -14642,7 +14534,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.795980134452096</v>
+        <v>1.785792300534539</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.135120613573081</v>
@@ -14731,7 +14623,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.786031862679542</v>
+        <v>1.775819595938977</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>4.058220088683536</v>
@@ -14820,7 +14712,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.794248817734513</v>
+        <v>1.782279381561282</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.940488626420071</v>
@@ -14909,7 +14801,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.800881224896837</v>
+        <v>1.790346846264321</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.494383187749339</v>
@@ -14998,7 +14890,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.808212484286859</v>
+        <v>1.798077277878697</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.827665283545442</v>
@@ -15087,7 +14979,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.817533175486605</v>
+        <v>1.813251711914354</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>4.228725551384095</v>
@@ -15176,7 +15068,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.819354777717195</v>
+        <v>1.812074059631302</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.843523725715979</v>
@@ -15265,7 +15157,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.821031795805814</v>
+        <v>1.811264664539482</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.84541035597947</v>
@@ -15354,7 +15246,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.826837446960504</v>
+        <v>1.817484364691093</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.399937929625744</v>
@@ -15443,7 +15335,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.822243477770101</v>
+        <v>1.814963590181481</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.855240786699763</v>
@@ -15532,7 +15424,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.831266996076169</v>
+        <v>1.824308800331615</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>4.167704647854972</v>
@@ -15621,7 +15513,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.836237497397499</v>
+        <v>1.831640245782048</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>4.031336335662901</v>
@@ -15710,7 +15602,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.837151081919077</v>
+        <v>1.828774299300516</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>4.253377970900195</v>
@@ -15799,7 +15691,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.839395444230568</v>
+        <v>1.831906368080134</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.933710888552731</v>
@@ -15888,7 +15780,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.848284660426524</v>
+        <v>1.837102152692172</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>4.4053422709891</v>
@@ -15977,7 +15869,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.857890015517271</v>
+        <v>1.845784302099833</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>4.048946587776393</v>
@@ -16066,7 +15958,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.87656730909103</v>
+        <v>1.863646780280917</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>4.178625697931398</v>
@@ -16155,7 +16047,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.884026967925471</v>
+        <v>1.873685735241468</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>4.227750828671481</v>
@@ -16244,7 +16136,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.887191297874689</v>
+        <v>1.877168963727654</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>4.297571170203524</v>
@@ -16333,7 +16225,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.894281106738321</v>
+        <v>1.884184902201806</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>4.10256245409045</v>
@@ -16422,7 +16314,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.894199735030914</v>
+        <v>1.883182291094804</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>4.397076654742099</v>
@@ -16511,7 +16403,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.894760864030724</v>
+        <v>1.880789233750227</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>4.322993075916541</v>
@@ -16600,7 +16492,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.898026876332411</v>
+        <v>1.891269203191051</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>4.198205979949326</v>
@@ -16689,7 +16581,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.895396064466461</v>
+        <v>1.888028580835956</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>4.298205828390843</v>
@@ -16778,7 +16670,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.883392639220635</v>
+        <v>1.882012200345034</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>4.278187580148377</v>
@@ -16867,7 +16759,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.875886468283446</v>
+        <v>1.882147414482681</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>4.224303794295698</v>
@@ -16956,7 +16848,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.875564701272209</v>
+        <v>1.878780977371902</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.57614821653531</v>
@@ -17242,7 +17134,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.740371876279214</v>
+        <v>1.738909157681856</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.428972015852282</v>
@@ -17331,7 +17223,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.756418701441022</v>
+        <v>1.75328959742488</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.256428618368658</v>
@@ -17420,7 +17312,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.711297170089045</v>
+        <v>1.694763508121304</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.036631857964245</v>
@@ -17509,7 +17401,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.720855466051941</v>
+        <v>1.696749336879118</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.880592695671928</v>
@@ -17598,7 +17490,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.731697449604218</v>
+        <v>1.712237439945094</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.763361589974945</v>
@@ -17687,7 +17579,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.718006589617651</v>
+        <v>1.692198563030287</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.612726267030365</v>
@@ -17776,7 +17668,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.729529601338291</v>
+        <v>1.709078946641877</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.032009353449552</v>
@@ -17865,7 +17757,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.728957211431496</v>
+        <v>1.711653880697435</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.469340067050328</v>
@@ -17954,7 +17846,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.740843945014481</v>
+        <v>1.72517962980411</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.672863122268239</v>
@@ -18043,7 +17935,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.746611871287572</v>
+        <v>1.721748742940115</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.729879726613566</v>
@@ -18132,7 +18024,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.750798428370934</v>
+        <v>1.72813787642384</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.15910921668594</v>
@@ -18221,7 +18113,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.758575187941368</v>
+        <v>1.731643462351964</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.509742912490777</v>
@@ -18310,7 +18202,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.745216259299475</v>
+        <v>1.717550324279957</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.418722088378616</v>
@@ -18399,7 +18291,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.755706689947581</v>
+        <v>1.727405286494498</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.635204399693683</v>
@@ -18488,7 +18380,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.755239611421057</v>
+        <v>1.724826324394014</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.023271440300972</v>
@@ -18577,7 +18469,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.745075756413852</v>
+        <v>1.719791697330673</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.634329390719424</v>
@@ -18666,7 +18558,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.748673210587598</v>
+        <v>1.721686876652882</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.22219135573239</v>
@@ -18755,7 +18647,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.721454798549203</v>
+        <v>1.703010340345159</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.793732609019914</v>
@@ -18844,7 +18736,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.725980609739478</v>
+        <v>1.703932906824679</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.722665241152756</v>
@@ -18933,7 +18825,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.721719232091906</v>
+        <v>1.691447117121939</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.040145268299892</v>
@@ -19022,7 +18914,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.689447812459428</v>
+        <v>1.678612250031567</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.051504417578762</v>
@@ -19111,7 +19003,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.671848970002509</v>
+        <v>1.656875000150885</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.000813277286883</v>
@@ -19200,7 +19092,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.678784736936506</v>
+        <v>1.665071861796404</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.006637525766986</v>
@@ -19289,7 +19181,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.675371153663303</v>
+        <v>1.663693047856733</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.00341817946516</v>
@@ -19378,7 +19270,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.676039695506351</v>
+        <v>1.668964370611245</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.022581143925035</v>
@@ -19467,7 +19359,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.680252786028679</v>
+        <v>1.67527229973125</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.033514560722967</v>
@@ -19556,7 +19448,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.677067842315706</v>
+        <v>1.680107599801134</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.060330210000885</v>
@@ -19645,7 +19537,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.686639356617969</v>
+        <v>1.69096388458691</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.02600571452214</v>
@@ -19734,7 +19626,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.688149304265705</v>
+        <v>1.69369347938834</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.032817524571951</v>
@@ -19823,7 +19715,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.704113513692555</v>
+        <v>1.704024403524796</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.098763001109617</v>
@@ -19912,7 +19804,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.70736539920227</v>
+        <v>1.704887454844318</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.030287008420486</v>
@@ -20001,7 +19893,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.723425602200786</v>
+        <v>1.717936588311724</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>1.993102204188477</v>
@@ -20090,7 +19982,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.74592505703419</v>
+        <v>1.743460902458857</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.040931021908699</v>
@@ -20179,7 +20071,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.74988862706586</v>
+        <v>1.750808330778512</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.049838663650278</v>
@@ -20268,7 +20160,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.796869089927435</v>
+        <v>1.792255443177362</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.046704333031107</v>
@@ -20357,7 +20249,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.80108722228258</v>
+        <v>1.790484928675923</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.520799200912298</v>
@@ -20446,7 +20338,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.824754546632167</v>
+        <v>1.81598446766941</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.637950250223584</v>
@@ -20535,7 +20427,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.805306005203551</v>
+        <v>1.800318197897256</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.137581021223592</v>
@@ -20624,7 +20516,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.8100550307001</v>
+        <v>1.802763903481838</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.041541627701561</v>
@@ -20713,7 +20605,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.824183950674387</v>
+        <v>1.813945815997396</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.25041546032192</v>
@@ -20802,7 +20694,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.830090002801287</v>
+        <v>1.819768650496916</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.359024106516405</v>
@@ -20891,7 +20783,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.837292758162323</v>
+        <v>1.820502349311984</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.906361766041982</v>
@@ -20980,7 +20872,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.839148516432795</v>
+        <v>1.823824000332928</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.301378536524076</v>
@@ -21069,7 +20961,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.84314413144798</v>
+        <v>1.823101881101203</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.273236275922776</v>
@@ -21158,7 +21050,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.844746526256501</v>
+        <v>1.824148039921472</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.06987860661252</v>
@@ -21247,7 +21139,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.843338941017336</v>
+        <v>1.82574639258601</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.31188666109779</v>
@@ -21336,7 +21228,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.837802409268291</v>
+        <v>1.825086077624819</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.549173538569347</v>
@@ -21425,7 +21317,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.847674742726003</v>
+        <v>1.825946948760337</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.373007504906052</v>
@@ -21514,7 +21406,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.83086907851234</v>
+        <v>1.814079758758893</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.452060138321917</v>
@@ -21603,7 +21495,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.821978512779408</v>
+        <v>1.804172616913015</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.369804827051238</v>
@@ -21692,7 +21584,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.834956423177478</v>
+        <v>1.815146950369253</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.280848048069633</v>
@@ -21781,7 +21673,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.834574567785346</v>
+        <v>1.811322691457642</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.317583106658149</v>
@@ -21870,7 +21762,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.850717048381457</v>
+        <v>1.821755295586163</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.354617301567978</v>
@@ -21959,7 +21851,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.83674312488625</v>
+        <v>1.809915543050312</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.701498373878291</v>
@@ -22048,7 +21940,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.831240596733895</v>
+        <v>1.804256104492495</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.254885291190588</v>
@@ -22137,7 +22029,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.828581660281897</v>
+        <v>1.802899201029619</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.540518214539983</v>
@@ -22226,7 +22118,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.827523910916631</v>
+        <v>1.804829537695867</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.430395439619513</v>
@@ -22315,7 +22207,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.822673230128161</v>
+        <v>1.794446326464072</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.248993412522799</v>
@@ -22404,7 +22296,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.808432006414365</v>
+        <v>1.779369103402722</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.127062499465044</v>
@@ -22493,7 +22385,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.803460887172035</v>
+        <v>1.779665693674897</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.198779514598472</v>
@@ -22582,7 +22474,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.812811318922928</v>
+        <v>1.784990537609199</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.822392419366819</v>
@@ -22868,7 +22760,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.691005145150319</v>
+        <v>1.697644240822079</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.983176280864293</v>
@@ -22957,7 +22849,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.714727421090294</v>
+        <v>1.710478379756848</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.843691361616034</v>
@@ -23046,7 +22938,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.723505891324276</v>
+        <v>1.719192318969078</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.974007669665877</v>
@@ -23135,7 +23027,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.701698287292372</v>
+        <v>1.682463788369462</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.700108933689053</v>
@@ -23224,7 +23116,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.707869878391826</v>
+        <v>1.679835175433621</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.398849393313123</v>
@@ -23313,7 +23205,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.705845988593979</v>
+        <v>1.681804750094888</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.399127596479239</v>
@@ -23402,7 +23294,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.725888691923833</v>
+        <v>1.699923973353799</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.556498837976166</v>
@@ -23491,7 +23383,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.752950655970062</v>
+        <v>1.716382594727618</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.500440105238146</v>
@@ -23580,7 +23472,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.766125321335027</v>
+        <v>1.731209596665598</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.481659733120471</v>
@@ -23669,7 +23561,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.763242737119736</v>
+        <v>1.734877640834866</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.642517286207024</v>
@@ -23758,7 +23650,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.762395315611128</v>
+        <v>1.733102158855574</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.507494790812913</v>
@@ -23847,7 +23739,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.771716669587588</v>
+        <v>1.738506765705018</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.613050600999178</v>
@@ -23936,7 +23828,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.790787645398268</v>
+        <v>1.753195225548206</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.26357187530002</v>
@@ -24025,7 +23917,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.790577606403414</v>
+        <v>1.748826790650372</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.413657632434209</v>
@@ -24114,7 +24006,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.78147926574323</v>
+        <v>1.744220210284946</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.633323537033222</v>
@@ -24203,7 +24095,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.774038741466564</v>
+        <v>1.745134513338556</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.038966479741514</v>
@@ -24292,7 +24184,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.776803851769323</v>
+        <v>1.749252288248077</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.645240936758355</v>
@@ -24381,7 +24273,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.777747786241285</v>
+        <v>1.751079824347019</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.566599928386375</v>
@@ -24470,7 +24362,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.780712929315687</v>
+        <v>1.757988233858931</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.677175637720749</v>
@@ -24559,7 +24451,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.791386404071439</v>
+        <v>1.76307475589689</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.069484033743343</v>
@@ -24648,7 +24540,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.768151663001175</v>
+        <v>1.753847842194608</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.091319761092346</v>
@@ -24737,7 +24629,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.754942115135926</v>
+        <v>1.737732147106217</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.071313010999426</v>
@@ -24826,7 +24718,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.757273000446244</v>
+        <v>1.740327602366177</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>1.985739057271177</v>
@@ -24915,7 +24807,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.767065436590299</v>
+        <v>1.745261901994383</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.043537520031552</v>
@@ -25004,7 +24896,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.772241767266545</v>
+        <v>1.747786054636637</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.10205056814855</v>
@@ -25093,7 +24985,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.77496188981545</v>
+        <v>1.753073827730989</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.084616048865299</v>
@@ -25182,7 +25074,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.776907302163106</v>
+        <v>1.760920148939594</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.081770229749771</v>
@@ -25271,7 +25163,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.784792926013757</v>
+        <v>1.770403800528035</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.087595921772767</v>
@@ -25360,7 +25252,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.788653521431187</v>
+        <v>1.77523844851869</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.096065780215364</v>
@@ -25449,7 +25341,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.7963393291515</v>
+        <v>1.779248240984567</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.145817320884426</v>
@@ -25538,7 +25430,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.811052247051284</v>
+        <v>1.787846482293465</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.095937752053789</v>
@@ -25627,7 +25519,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.813425755620228</v>
+        <v>1.795530290634007</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.109636518535879</v>
@@ -25716,7 +25608,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.821669709217124</v>
+        <v>1.804036297138676</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.105874024247002</v>
@@ -25805,7 +25697,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.825017280576902</v>
+        <v>1.810453638122107</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.118613591322917</v>
@@ -25894,7 +25786,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.854386152219516</v>
+        <v>1.834383835859699</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.478540542746809</v>
@@ -25983,7 +25875,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.851790186303074</v>
+        <v>1.828119169000571</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>4.104865574789469</v>
@@ -26072,7 +25964,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.86945191825886</v>
+        <v>1.847818294394317</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>4.383351520724212</v>
@@ -26161,7 +26053,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.870344296441326</v>
+        <v>1.854341264010491</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>4.971596957121376</v>
@@ -26250,7 +26142,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.873403799365032</v>
+        <v>1.858367456740864</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>4.150710681807964</v>
@@ -26339,7 +26231,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.873648920380525</v>
+        <v>1.863159046656766</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>4.079096463699312</v>
@@ -26428,7 +26320,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.881619235367095</v>
+        <v>1.873554242618765</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>4.323689690911057</v>
@@ -26517,7 +26409,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.88445331693372</v>
+        <v>1.869271819749035</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>4.675963280141213</v>
@@ -26606,7 +26498,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.895408114299244</v>
+        <v>1.875328798870424</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>4.287511956376176</v>
@@ -26695,7 +26587,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.902388175521647</v>
+        <v>1.883130112989952</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>4.384629379842537</v>
@@ -26784,7 +26676,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.904856474811981</v>
+        <v>1.888498077682298</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>4.738161297322267</v>
@@ -26873,7 +26765,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.899603987501943</v>
+        <v>1.887717697731073</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.643652631013263</v>
@@ -26962,7 +26854,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.89845068828223</v>
+        <v>1.880837481856893</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.933461241347111</v>
@@ -27051,7 +26943,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.893468848602709</v>
+        <v>1.874639868227814</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>4.361099206938825</v>
@@ -27140,7 +27032,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.884456328856685</v>
+        <v>1.866897350009196</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>4.109756305981909</v>
@@ -27229,7 +27121,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.888450939078654</v>
+        <v>1.86655499080861</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>4.428685240772233</v>
@@ -27318,7 +27210,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.895051819167868</v>
+        <v>1.873629780191106</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>4.136517608637185</v>
@@ -27407,7 +27299,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.894071767706922</v>
+        <v>1.865847496157675</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.675955128894335</v>
@@ -27496,7 +27388,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.891206594133068</v>
+        <v>1.85696105422603</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>4.001824660596911</v>
@@ -27585,7 +27477,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.88991601435117</v>
+        <v>1.849122084730775</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>4.431102898565678</v>
@@ -27674,7 +27566,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.888471205119771</v>
+        <v>1.84309123876589</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>4.55597985577562</v>
@@ -27763,7 +27655,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.887848997028608</v>
+        <v>1.840877782218873</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>4.278005077999387</v>
@@ -27852,7 +27744,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.890749778372154</v>
+        <v>1.840111973165703</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>4.362432925984575</v>
@@ -27941,7 +27833,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.883898200677066</v>
+        <v>1.832887813094001</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.896111766541024</v>
@@ -28030,7 +27922,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.881816740629477</v>
+        <v>1.828029353509061</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>4.508023748620627</v>
@@ -28119,7 +28011,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.886271374768139</v>
+        <v>1.823777240384765</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>4.275556320240271</v>
@@ -28208,7 +28100,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.895318511636957</v>
+        <v>1.830126398584152</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>4.396857224159063</v>
@@ -28494,7 +28386,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.644450574600435</v>
+        <v>1.655965177419386</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.465090011141574</v>
@@ -28583,7 +28475,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.65556036885944</v>
+        <v>1.664442514885432</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.519564947531825</v>
@@ -28672,7 +28564,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.65460002055681</v>
+        <v>1.66280398041054</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.239948773510507</v>
@@ -28761,7 +28653,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.606314636160286</v>
+        <v>1.600030673988267</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.778365317571982</v>
@@ -28850,7 +28742,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.585719800983463</v>
+        <v>1.575628601500633</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.728278257387758</v>
@@ -28939,7 +28831,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.604436391160034</v>
+        <v>1.591908174400091</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.871257133351802</v>
@@ -29028,7 +28920,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.620190537154683</v>
+        <v>1.610475265120074</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.939167169140734</v>
@@ -29117,7 +29009,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.658223031807006</v>
+        <v>1.653562915767201</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.059875788540769</v>
@@ -29206,7 +29098,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.68995806617134</v>
+        <v>1.690952010985481</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.013258848475832</v>
@@ -29295,7 +29187,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.713577630835026</v>
+        <v>1.718380479910306</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.085088284242532</v>
@@ -29384,7 +29276,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.744483769231686</v>
+        <v>1.747154854580293</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.10094243293777</v>
@@ -29473,7 +29365,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.768086511887219</v>
+        <v>1.771940399054772</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.318572109187795</v>
@@ -29562,7 +29454,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.787239071920135</v>
+        <v>1.794785165473224</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.533320067189538</v>
@@ -29651,7 +29543,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.777684793432003</v>
+        <v>1.783650576364829</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>4.049272788634007</v>
@@ -29740,7 +29632,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.766924643266867</v>
+        <v>1.770731668800332</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.736746854815667</v>
@@ -29829,7 +29721,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.775140812901185</v>
+        <v>1.778882592372621</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.55106336360732</v>
@@ -29918,7 +29810,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.783854078024602</v>
+        <v>1.78866064256225</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.787974115283398</v>
@@ -30007,7 +29899,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.791360183369721</v>
+        <v>1.795790328092108</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.566765105288011</v>
@@ -30096,7 +29988,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.801974863735019</v>
+        <v>1.803059577428378</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.901660497220949</v>
@@ -30185,7 +30077,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.819161161118645</v>
+        <v>1.807018099511541</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.271892008936848</v>
@@ -30274,7 +30166,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.792179574889337</v>
+        <v>1.790341969896068</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.264780455034675</v>
@@ -30363,7 +30255,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.77629676144214</v>
+        <v>1.778325257276405</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.329274487096834</v>
@@ -30452,7 +30344,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.752914003361641</v>
+        <v>1.755096409689846</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.214327895447028</v>
@@ -30541,7 +30433,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.729788187620866</v>
+        <v>1.733469551053191</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.146358505903941</v>
@@ -30630,7 +30522,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.724287781281582</v>
+        <v>1.728637062954375</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.224788945429506</v>
@@ -30719,7 +30611,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.718627926405177</v>
+        <v>1.724164664462589</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.168698817200974</v>
@@ -30808,7 +30700,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.713580736991467</v>
+        <v>1.717842121795653</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.120662044707855</v>
@@ -30897,7 +30789,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.708654905803746</v>
+        <v>1.714072649827088</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.069129942617407</v>
@@ -30986,7 +30878,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.718181288151939</v>
+        <v>1.72784889911365</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.194149760618771</v>
@@ -31075,7 +30967,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.731025043806877</v>
+        <v>1.738847592177537</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.240305738133583</v>
@@ -31164,7 +31056,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.730487388548045</v>
+        <v>1.736323397175134</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.141527793005498</v>
@@ -31253,7 +31145,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.728449075619978</v>
+        <v>1.734235686559038</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.205865145693502</v>
@@ -31342,7 +31234,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.737176844064753</v>
+        <v>1.741016922345646</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.143038855127786</v>
@@ -31431,7 +31323,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.72492310000678</v>
+        <v>1.730782377411509</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.147263827356954</v>
@@ -31520,7 +31412,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.732288704402349</v>
+        <v>1.73279784076051</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.920722482337192</v>
@@ -31609,7 +31501,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.732010128437971</v>
+        <v>1.737812418762358</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>4.033923522932085</v>
@@ -31698,7 +31590,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.748147674734877</v>
+        <v>1.752732176176589</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.940433361591378</v>
@@ -31787,7 +31679,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.75461126227389</v>
+        <v>1.760850317654601</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.887863845271349</v>
@@ -31876,7 +31768,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.773943315312628</v>
+        <v>1.773933400144224</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.844480083583984</v>
@@ -31965,7 +31857,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.774598304872361</v>
+        <v>1.775104650034451</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.536785457579646</v>
@@ -32054,7 +31946,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.774679816635633</v>
+        <v>1.772810111221666</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.248458072206132</v>
@@ -32143,7 +32035,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.784636346750887</v>
+        <v>1.780247494968059</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.539435683855047</v>
@@ -32232,7 +32124,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.787691614308818</v>
+        <v>1.785577475320203</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.708947951605155</v>
@@ -32321,7 +32213,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.794010263296072</v>
+        <v>1.789764315874117</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.708659975455824</v>
@@ -32410,7 +32302,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.799836686136588</v>
+        <v>1.792420689900662</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.183886733722686</v>
@@ -32499,7 +32391,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.80992760056926</v>
+        <v>1.802299691815161</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.788075570125469</v>
@@ -32588,7 +32480,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.81303726419922</v>
+        <v>1.803302977787637</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.735964623045316</v>
@@ -32677,7 +32569,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.813993492482151</v>
+        <v>1.803029623710177</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.55508917885885</v>
@@ -32766,7 +32658,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.829084056594325</v>
+        <v>1.825894382335274</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.058684556660896</v>
@@ -32855,7 +32747,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.853896646588735</v>
+        <v>1.854898887257148</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.844491477392054</v>
@@ -32944,7 +32836,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.873346126164946</v>
+        <v>1.873327776491476</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>4.203173609622274</v>
@@ -33033,7 +32925,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.889084056563621</v>
+        <v>1.88592123402522</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>4.468324669901953</v>
@@ -33122,7 +33014,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.896456558790238</v>
+        <v>1.893582515100956</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>4.455759981427299</v>
@@ -33211,7 +33103,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.900473061109651</v>
+        <v>1.898200330513951</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>4.663854919463756</v>
@@ -33300,7 +33192,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.909365843227468</v>
+        <v>1.903067757094251</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>4.120769075885239</v>
@@ -33389,7 +33281,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.899102991859165</v>
+        <v>1.901249838795234</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>4.59210660120476</v>
@@ -33478,7 +33370,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.900607328520878</v>
+        <v>1.904772346579073</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.874419152150926</v>
@@ -33567,7 +33459,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.895695474860208</v>
+        <v>1.899074291279042</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>4.865225308916168</v>
@@ -33656,7 +33548,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.897645343935497</v>
+        <v>1.906114119548311</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>4.691758246948269</v>
@@ -33745,7 +33637,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.896010652897415</v>
+        <v>1.904483550072907</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>4.376264832231919</v>
@@ -33834,7 +33726,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.896804971011925</v>
+        <v>1.907000161393119</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>4.292442511347884</v>
@@ -34120,7 +34012,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.500478844401138</v>
+        <v>1.511864813041581</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.3078077292037</v>
@@ -34209,7 +34101,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.541129494533378</v>
+        <v>1.550919612525951</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.197240891155224</v>
@@ -34298,7 +34190,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.56190727460166</v>
+        <v>1.575479027903016</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.184234240108257</v>
@@ -34387,7 +34279,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.630212267514676</v>
+        <v>1.632770068169437</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.388352857676448</v>
@@ -34476,7 +34368,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.667632114258155</v>
+        <v>1.665665153603168</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.577234999306743</v>
@@ -34565,7 +34457,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.668046090373565</v>
+        <v>1.668345939068441</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.790506362107435</v>
@@ -34654,7 +34546,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.642287898051635</v>
+        <v>1.643347120397349</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.588530056313819</v>
@@ -34743,7 +34635,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.623881185873867</v>
+        <v>1.636340747372368</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.564521849576822</v>
@@ -34832,7 +34724,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.642778428844269</v>
+        <v>1.651819368033661</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.694689264415425</v>
@@ -34921,7 +34813,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.646072344506986</v>
+        <v>1.656074887432029</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.584240357635545</v>
@@ -35010,7 +34902,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.644067072408082</v>
+        <v>1.658686051533768</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.716474974077074</v>
@@ -35099,7 +34991,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.658446995210443</v>
+        <v>1.669994247745435</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.763589884753785</v>
@@ -35188,7 +35080,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.661272160967432</v>
+        <v>1.672115699404916</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.728059411050611</v>
@@ -35277,7 +35169,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.67364185473051</v>
+        <v>1.682802718850644</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.65836148081423</v>
@@ -35366,7 +35258,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.647114240183037</v>
+        <v>1.653244308796104</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.692771634254996</v>
@@ -35455,7 +35347,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.633011437067248</v>
+        <v>1.644098648656127</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.760662944396171</v>
@@ -35544,7 +35436,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.642365155077446</v>
+        <v>1.651611569838398</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.803018955132822</v>
@@ -35633,7 +35525,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.634821841789683</v>
+        <v>1.646147527527485</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.7582893846493</v>
@@ -35722,7 +35614,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.66366667514255</v>
+        <v>1.674089050360221</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.738493659140239</v>
@@ -35811,7 +35703,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.696170134400977</v>
+        <v>1.699394072071984</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.275199898376532</v>
@@ -35900,7 +35792,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.681654064452939</v>
+        <v>1.692787939086366</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.327841252324408</v>
@@ -35989,7 +35881,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.69034957510481</v>
+        <v>1.694837452982149</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.43142133572271</v>
@@ -36078,7 +35970,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.711456679420573</v>
+        <v>1.711289297103166</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.368598739537751</v>
@@ -36167,7 +36059,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.720239380991648</v>
+        <v>1.723747472415055</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.294253820887738</v>
@@ -36256,7 +36148,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.725175811121014</v>
+        <v>1.731870136365551</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.356861110249583</v>
@@ -36345,7 +36237,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.738808428000048</v>
+        <v>1.744228372570031</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.37820230475235</v>
@@ -36434,7 +36326,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.750056881668577</v>
+        <v>1.756721781875845</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.324845595268868</v>
@@ -36523,7 +36415,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.761350123199459</v>
+        <v>1.765533019952831</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.210027997298281</v>
@@ -36612,7 +36504,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.772946238874235</v>
+        <v>1.780922838467977</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.482238299713972</v>
@@ -36701,7 +36593,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.775949553725332</v>
+        <v>1.78559988005598</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.570706438042893</v>
@@ -36790,7 +36682,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.78212083136353</v>
+        <v>1.792627075721549</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.360373771873379</v>
@@ -36879,7 +36771,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.779595910259251</v>
+        <v>1.792805944997143</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.40784292110563</v>
@@ -36968,7 +36860,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.796253892792951</v>
+        <v>1.810246912599853</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.414654265884186</v>
@@ -37057,7 +36949,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.794833254329764</v>
+        <v>1.809884297145758</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.413970275588354</v>
@@ -37146,7 +37038,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.803247070509195</v>
+        <v>1.816054257975482</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.392916383131702</v>
@@ -37235,7 +37127,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.79028658992353</v>
+        <v>1.804891095381133</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.050056264092881</v>
@@ -37324,7 +37216,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.823194846786079</v>
+        <v>1.838192625660785</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.018601726883075</v>
@@ -37413,7 +37305,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.819911351604966</v>
+        <v>1.839237443244988</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.157380487669005</v>
@@ -37502,7 +37394,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.826043431312152</v>
+        <v>1.842766143682195</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.257114888409953</v>
@@ -37591,7 +37483,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.8312616266054</v>
+        <v>1.849236091571563</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.360376809194177</v>
@@ -37680,7 +37572,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.831006357338082</v>
+        <v>1.850142823946908</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.335433947822723</v>
@@ -37769,7 +37661,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.819846701366797</v>
+        <v>1.839035018687067</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.731573276038087</v>
@@ -37858,7 +37750,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.824219871416541</v>
+        <v>1.845349437973926</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.635461795655829</v>
@@ -37947,7 +37839,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.817501412731436</v>
+        <v>1.835797576834261</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.540965690040659</v>
@@ -38036,7 +37928,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.822335649826045</v>
+        <v>1.837651730134108</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.411117767878716</v>
@@ -38125,7 +38017,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.813137084145919</v>
+        <v>1.829396152605291</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.377259930654131</v>
@@ -38214,7 +38106,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.822399980419238</v>
+        <v>1.836349820757008</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.498840353643752</v>
@@ -38303,7 +38195,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.826732371881029</v>
+        <v>1.838096114294884</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.659352982229959</v>
@@ -38392,7 +38284,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.819015330163601</v>
+        <v>1.826725395357437</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.372211834486252</v>
@@ -38481,7 +38373,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.829903761590882</v>
+        <v>1.83683131470877</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.242663325917414</v>
@@ -38570,7 +38462,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.851762541887985</v>
+        <v>1.85332775158142</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>4.032350746177152</v>
@@ -38659,7 +38551,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.854518300858699</v>
+        <v>1.854480692805551</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.737688435782099</v>
@@ -38748,7 +38640,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.857126539443395</v>
+        <v>1.849232137747292</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.955398580533468</v>
@@ -38837,7 +38729,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.852704137060456</v>
+        <v>1.84839719012366</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.951932774930481</v>
@@ -38926,7 +38818,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.856494012615241</v>
+        <v>1.846038637090213</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.795761111217829</v>
@@ -39015,7 +38907,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.856201573448893</v>
+        <v>1.844703818438427</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.191857419885735</v>
@@ -39104,7 +38996,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.861852155411203</v>
+        <v>1.850946978912863</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.709711690896463</v>
@@ -39193,7 +39085,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.859540879130906</v>
+        <v>1.842410628337794</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.150238935085689</v>
@@ -39282,7 +39174,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.862444429779568</v>
+        <v>1.843069882212369</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.332136805950197</v>
@@ -39371,7 +39263,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.881282643066337</v>
+        <v>1.85124159423226</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.649594360983232</v>
@@ -39460,7 +39352,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.900746819112096</v>
+        <v>1.865651153872935</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>4.178107967225718</v>
